--- a/doc/EGO/eego.xlsx
+++ b/doc/EGO/eego.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\EGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85875F4-12FA-4B49-8A5A-6E1FAE1AEB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35386FBD-AAF2-475A-8DE3-79136207F902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9370" yWindow="1470" windowWidth="16650" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Φύλλο1!$C$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Φύλλο1!$C$3:$C$37</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Φύλλο1!$C$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Φύλλο1!$C$3:$C$37</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Φύλλο1!$D$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Φύλλο1!$D$3:$D$37</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Φύλλο1!$E$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Φύλλο1!$E$3:$E$37</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Φύλλο1!$F$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Φύλλο1!$F$3:$F$37</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Φύλλο1!$G$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Φύλλο1!$G$3:$G$37</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Φύλλο1!$D$2</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Φύλλο1!$D$3:$D$37</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Φύλλο1!$E$2</definedName>
@@ -72,9 +62,6 @@
     <t>GAO</t>
   </si>
   <si>
-    <t>EOFA</t>
-  </si>
-  <si>
     <t>BF1</t>
   </si>
   <si>
@@ -190,6 +177,9 @@
   </si>
   <si>
     <t>KMEANS</t>
+  </si>
+  <si>
+    <t>EEGO</t>
   </si>
 </sst>
 </file>
@@ -769,7 +759,7 @@
                   <c:v>GAO</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EOFA</c:v>
+                  <c:v>EEGO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1234,7 +1224,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>EOFA</cx:v>
+              <cx:v>EEGO</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -2392,16 +2382,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2437,7 +2427,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10912475" y="3879850"/>
+              <a:off x="8804275" y="3492500"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2470,13 +2460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>41275</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2804,20 +2794,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q77"/>
+  <dimension ref="A2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="1024" width="8.7265625" customWidth="1"/>
+    <col min="3" max="1019" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2834,13 +2824,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>4007</v>
@@ -2857,16 +2847,16 @@
       <c r="G3" s="1">
         <v>3228</v>
       </c>
-      <c r="N3" s="4">
+      <c r="I3" s="4">
         <v>4139</v>
       </c>
-      <c r="P3">
+      <c r="K3">
         <v>8268</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>3794</v>
@@ -2883,16 +2873,16 @@
       <c r="G4" s="1">
         <v>2815</v>
       </c>
-      <c r="N4" s="4">
+      <c r="I4" s="4">
         <v>3775</v>
       </c>
-      <c r="P4">
+      <c r="K4">
         <v>7913</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>2376</v>
@@ -2909,16 +2899,16 @@
       <c r="G5" s="1">
         <v>1684</v>
       </c>
-      <c r="N5" s="4">
+      <c r="I5" s="4">
         <v>2353</v>
       </c>
-      <c r="P5">
+      <c r="K5">
         <v>4101</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>2869</v>
@@ -2935,16 +2925,16 @@
       <c r="G6" s="1">
         <v>2262</v>
       </c>
-      <c r="N6" s="4">
+      <c r="I6" s="4">
         <v>2856</v>
       </c>
-      <c r="P6">
+      <c r="K6">
         <v>5609</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1958</v>
@@ -2961,16 +2951,16 @@
       <c r="G7" s="1">
         <v>1334</v>
       </c>
-      <c r="N7" s="4">
+      <c r="I7" s="4">
         <v>1972</v>
       </c>
-      <c r="P7">
+      <c r="K7">
         <v>2978</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>2946</v>
@@ -2987,16 +2977,16 @@
       <c r="G8" s="1">
         <v>2166</v>
       </c>
-      <c r="N8" s="4">
+      <c r="I8" s="4">
         <v>2918</v>
       </c>
-      <c r="P8">
+      <c r="K8">
         <v>5166</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>3120</v>
@@ -3013,16 +3003,16 @@
       <c r="G9" s="1">
         <v>2802</v>
       </c>
-      <c r="N9" s="4">
+      <c r="I9" s="4">
         <v>2989</v>
       </c>
-      <c r="P9">
+      <c r="K9">
         <v>5895</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>3250</v>
@@ -3039,16 +3029,16 @@
       <c r="G10" s="1">
         <v>3279</v>
       </c>
-      <c r="N10" s="4">
+      <c r="I10" s="4">
         <v>3110</v>
       </c>
-      <c r="P10">
+      <c r="K10">
         <v>6498</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>3561</v>
@@ -3065,16 +3055,16 @@
       <c r="G11" s="1">
         <v>3430</v>
       </c>
-      <c r="N11" s="4">
+      <c r="I11" s="4">
         <v>3319</v>
       </c>
-      <c r="P11">
+      <c r="K11">
         <v>7606</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>2280</v>
@@ -3091,16 +3081,16 @@
       <c r="G12" s="1">
         <v>1603</v>
       </c>
-      <c r="N12" s="4">
+      <c r="I12" s="4">
         <v>2435</v>
       </c>
-      <c r="P12">
+      <c r="K12">
         <v>3834</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>2613</v>
@@ -3117,16 +3107,16 @@
       <c r="G13" s="1">
         <v>1298</v>
       </c>
-      <c r="N13" s="4">
+      <c r="I13" s="4">
         <v>2773</v>
       </c>
-      <c r="P13">
+      <c r="K13">
         <v>3919</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>3687</v>
@@ -3143,16 +3133,16 @@
       <c r="G14" s="1">
         <v>2784</v>
       </c>
-      <c r="N14" s="4">
+      <c r="I14" s="4">
         <v>3859</v>
       </c>
-      <c r="P14">
+      <c r="K14">
         <v>6781</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>4501</v>
@@ -3169,19 +3159,19 @@
       <c r="G15" s="1">
         <v>2589</v>
       </c>
-      <c r="N15" s="4">
+      <c r="I15" s="4">
         <v>4174</v>
       </c>
-      <c r="P15">
+      <c r="K15">
         <v>7429</v>
       </c>
-      <c r="Q15">
+      <c r="L15">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>6410</v>
@@ -3198,16 +3188,16 @@
       <c r="G16" s="1">
         <v>7435</v>
       </c>
-      <c r="N16" s="4">
+      <c r="I16" s="4">
         <v>7577</v>
       </c>
-      <c r="P16">
+      <c r="K16">
         <v>18490</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>3210</v>
@@ -3224,16 +3214,16 @@
       <c r="G17" s="1">
         <v>2484</v>
       </c>
-      <c r="N17" s="4">
+      <c r="I17" s="4">
         <v>3506</v>
       </c>
-      <c r="P17">
+      <c r="K17">
         <v>4185</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>2752</v>
@@ -3250,16 +3240,16 @@
       <c r="G18" s="1">
         <v>1793</v>
       </c>
-      <c r="N18" s="4">
+      <c r="I18" s="4">
         <v>2951</v>
       </c>
-      <c r="P18">
+      <c r="K18">
         <v>5190</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>3219</v>
@@ -3276,16 +3266,16 @@
       <c r="G19" s="1">
         <v>2478</v>
       </c>
-      <c r="N19" s="4">
+      <c r="I19" s="4">
         <v>3635</v>
       </c>
-      <c r="P19">
+      <c r="K19">
         <v>5968</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>4352</v>
@@ -3302,16 +3292,16 @@
       <c r="G20" s="1">
         <v>4081</v>
       </c>
-      <c r="N20" s="4">
+      <c r="I20" s="4">
         <v>3862</v>
       </c>
-      <c r="P20">
+      <c r="K20">
         <v>6118</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>7705</v>
@@ -3328,16 +3318,16 @@
       <c r="G21" s="1">
         <v>8886</v>
       </c>
-      <c r="N21" s="4">
+      <c r="I21" s="4">
         <v>6883</v>
       </c>
-      <c r="P21">
+      <c r="K21">
         <v>9119</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>4107</v>
@@ -3354,16 +3344,16 @@
       <c r="G22" s="1">
         <v>2304</v>
       </c>
-      <c r="N22" s="4">
+      <c r="I22" s="4">
         <v>3945</v>
       </c>
-      <c r="P22">
+      <c r="K22">
         <v>6216</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>3679</v>
@@ -3380,16 +3370,16 @@
       <c r="G23" s="1">
         <v>4019</v>
       </c>
-      <c r="N23" s="4">
+      <c r="I23" s="4">
         <v>5115</v>
       </c>
-      <c r="P23">
+      <c r="K23">
         <v>8452</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>5270</v>
@@ -3406,16 +3396,16 @@
       <c r="G24" s="1">
         <v>6801</v>
       </c>
-      <c r="N24" s="4">
+      <c r="I24" s="4">
         <v>6857</v>
       </c>
-      <c r="P24">
+      <c r="K24">
         <v>11530</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>8509</v>
@@ -3432,16 +3422,16 @@
       <c r="G25" s="1">
         <v>11996</v>
       </c>
-      <c r="N25" s="4">
+      <c r="I25" s="4">
         <v>9862</v>
       </c>
-      <c r="P25">
+      <c r="K25">
         <v>17432</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>3325</v>
@@ -3458,16 +3448,16 @@
       <c r="G26" s="1">
         <v>2495</v>
       </c>
-      <c r="N26" s="4">
+      <c r="I26" s="4">
         <v>3645</v>
       </c>
-      <c r="P26">
+      <c r="K26">
         <v>6662</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>3360</v>
@@ -3484,16 +3474,16 @@
       <c r="G27" s="1">
         <v>2432</v>
       </c>
-      <c r="N27" s="4">
+      <c r="I27" s="4">
         <v>3674</v>
       </c>
-      <c r="P27">
+      <c r="K27">
         <v>6967</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>3488</v>
@@ -3510,16 +3500,16 @@
       <c r="G28" s="1">
         <v>2516</v>
       </c>
-      <c r="N28" s="4">
+      <c r="I28" s="4">
         <v>3665</v>
       </c>
-      <c r="P28">
+      <c r="K28">
         <v>6757</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>3331</v>
@@ -3536,19 +3526,19 @@
       <c r="G29" s="1">
         <v>2277</v>
       </c>
-      <c r="N29" s="4">
+      <c r="I29" s="4">
         <v>3423</v>
       </c>
-      <c r="O29">
+      <c r="J29">
         <v>93</v>
       </c>
-      <c r="P29">
+      <c r="K29">
         <v>6396</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>4000</v>
@@ -3565,22 +3555,22 @@
       <c r="G30" s="1">
         <v>2734</v>
       </c>
-      <c r="N30" s="4">
+      <c r="I30" s="4">
         <v>3889</v>
       </c>
-      <c r="O30">
+      <c r="J30">
         <v>80</v>
       </c>
-      <c r="P30">
+      <c r="K30">
         <v>6271</v>
       </c>
-      <c r="Q30">
+      <c r="L30">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <v>4312</v>
@@ -3597,22 +3587,22 @@
       <c r="G31" s="1">
         <v>2905</v>
       </c>
-      <c r="N31" s="4">
+      <c r="I31" s="4">
         <v>4267</v>
       </c>
-      <c r="O31">
+      <c r="J31">
         <v>70</v>
       </c>
-      <c r="P31">
+      <c r="K31">
         <v>5410</v>
       </c>
-      <c r="Q31">
+      <c r="L31">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <v>4775</v>
@@ -3629,22 +3619,22 @@
       <c r="G32" s="1">
         <v>3559</v>
       </c>
-      <c r="N32" s="4">
+      <c r="I32" s="4">
         <v>4403</v>
       </c>
-      <c r="O32">
+      <c r="J32">
         <v>43</v>
       </c>
-      <c r="P32">
+      <c r="K32">
         <v>7074</v>
       </c>
-      <c r="Q32">
+      <c r="L32">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>2991</v>
@@ -3661,16 +3651,16 @@
       <c r="G33" s="1">
         <v>2005</v>
       </c>
-      <c r="N33" s="4">
+      <c r="I33" s="4">
         <v>3265</v>
       </c>
-      <c r="P33">
+      <c r="K33">
         <v>5953</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>3442</v>
@@ -3687,16 +3677,16 @@
       <c r="G34" s="1">
         <v>3158</v>
       </c>
-      <c r="N34" s="4">
+      <c r="I34" s="4">
         <v>3844</v>
       </c>
-      <c r="P34">
+      <c r="K34">
         <v>6973</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>4320</v>
@@ -3713,16 +3703,16 @@
       <c r="G35" s="1">
         <v>5891</v>
       </c>
-      <c r="N35" s="4">
+      <c r="I35" s="4">
         <v>4813</v>
       </c>
-      <c r="P35">
+      <c r="K35">
         <v>6979</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>3211</v>
@@ -3739,16 +3729,16 @@
       <c r="G36" s="1">
         <v>2362</v>
       </c>
-      <c r="N36" s="4">
+      <c r="I36" s="4">
         <v>3864</v>
       </c>
-      <c r="P36">
+      <c r="K36">
         <v>6168</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <v>3679</v>
@@ -3765,16 +3755,16 @@
       <c r="G37" s="1">
         <v>2978</v>
       </c>
-      <c r="N37" s="4">
+      <c r="I37" s="4">
         <v>4772</v>
       </c>
-      <c r="P37">
+      <c r="K37">
         <v>7006</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <v>134409</v>
@@ -3794,27 +3784,27 @@
         <v>118863</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="8">
         <v>4513</v>
@@ -3825,9 +3815,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="8">
         <v>3959</v>
@@ -3838,9 +3828,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="8">
         <v>2282</v>
@@ -3851,9 +3841,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="8">
         <v>3156</v>
@@ -3864,9 +3854,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="8">
         <v>1756</v>
@@ -3877,9 +3867,9 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="8">
         <v>3438</v>
@@ -3890,9 +3880,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="8">
         <v>3432</v>
@@ -3905,7 +3895,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="8">
         <v>3369</v>
@@ -3918,7 +3908,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="8">
         <v>3216</v>
@@ -3931,7 +3921,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="8">
         <v>2268</v>
@@ -3944,7 +3934,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="8">
         <v>2151</v>
@@ -3957,7 +3947,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="8">
         <v>3855</v>
@@ -3970,7 +3960,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="8">
         <v>4310</v>
@@ -3983,7 +3973,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="8">
         <v>8640</v>
@@ -3996,7 +3986,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" s="8">
         <v>3329</v>
@@ -4009,7 +3999,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="8">
         <v>2849</v>
@@ -4022,7 +4012,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="8">
         <v>3456</v>
@@ -4035,7 +4025,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="8">
         <v>4554</v>
@@ -4048,7 +4038,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="8">
         <v>8356</v>
@@ -4061,7 +4051,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="8">
         <v>3310</v>
@@ -4074,7 +4064,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="8">
         <v>6566</v>
@@ -4087,7 +4077,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63" s="8">
         <v>8379</v>
@@ -4100,7 +4090,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="8">
         <v>11921</v>
@@ -4113,7 +4103,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="8">
         <v>3946</v>
@@ -4126,7 +4116,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="8">
         <v>3990</v>
@@ -4139,7 +4129,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67" s="8">
         <v>3836</v>
@@ -4152,7 +4142,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="8">
         <v>3345</v>
@@ -4165,7 +4155,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="8">
         <v>3937</v>
@@ -4178,7 +4168,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" s="8">
         <v>4008</v>
@@ -4191,7 +4181,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="8">
         <v>4545</v>
@@ -4204,7 +4194,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" s="8">
         <v>3128</v>
@@ -4217,7 +4207,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" s="8">
         <v>4126</v>
@@ -4230,7 +4220,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" s="8">
         <v>6774</v>
@@ -4243,7 +4233,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C75" s="8">
         <v>3704</v>
@@ -4256,7 +4246,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="8">
         <v>4262</v>
@@ -4269,7 +4259,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C77" s="11">
         <v>152666</v>
